--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\GitHub\wasm-net-bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802EBC0-2F92-4CE8-B073-D1200DA5B891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578C83B-62D5-4AA2-AA51-EEBB9E6FC2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{ADC6C370-3431-4DE3-A1A8-13FBD2D2E9F8}"/>
   </bookViews>
